--- a/StructureDefinition-FacilityBundle.xlsx
+++ b/StructureDefinition-FacilityBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T04:28:30+00:00</t>
+    <t>2025-10-06T14:14:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FacilityBundle.xlsx
+++ b/StructureDefinition-FacilityBundle.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/FacilityBundle</t>
+    <t>https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/FacilityBundle</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T14:14:26+00:00</t>
+    <t>2025-10-07T08:34:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1082,7 +1082,7 @@
     <t>Bundle.entry:CompositionFacilityEntry.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Composition {https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/CompositionFacility}
+    <t xml:space="preserve">Composition {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/CompositionFacility}
 </t>
   </si>
   <si>
@@ -1204,7 +1204,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Encounter {https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/EncounterFacility}
+    <t xml:space="preserve">Encounter {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/EncounterFacility}
 </t>
   </si>
   <si>
@@ -1316,7 +1316,7 @@
     <t>Bundle.entry:InitialImpression.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Condition {https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ConditionInitialImpression}
+    <t xml:space="preserve">Condition {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ConditionInitialImpression}
 </t>
   </si>
   <si>
@@ -1431,7 +1431,7 @@
     <t>Bundle.entry:ICD10NatureOfInjury.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Condition {https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ConditionICD10NatureOfInjury}
+    <t xml:space="preserve">Condition {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ConditionICD10NatureOfInjury}
 </t>
   </si>
   <si>
@@ -1534,7 +1534,7 @@
     <t>Bundle.entry:ICD10ExternalCause.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Condition {https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ConditionICD10ExternalCause}
+    <t xml:space="preserve">Condition {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ConditionICD10ExternalCause}
 </t>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
 MeasurementResultsTests</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ObservationEDHeartRate}
+    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ObservationEDHeartRate}
 </t>
   </si>
   <si>
@@ -1759,7 +1759,7 @@
     <t>Bundle.entry:EDBloodPressure.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ObservationEDBloodPressure}
+    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ObservationEDBloodPressure}
 </t>
   </si>
   <si>
@@ -1862,7 +1862,7 @@
     <t>Bundle.entry:OutcomeAtDischarge.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ObservationOutcomeAtDischarge}
+    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ObservationOutcomeAtDischarge}
 </t>
   </si>
   <si>
@@ -1965,7 +1965,7 @@
     <t>Bundle.entry:FacilityReportDocument.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">DocumentReference {https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/DocumentReferenceFacilityReport}
+    <t xml:space="preserve">DocumentReference {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/DocumentReferenceFacilityReport}
 </t>
   </si>
   <si>
@@ -2182,7 +2182,7 @@
     <t>Bundle.entry:TaskEntry.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Task {https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/TaskRoadSafety}
+    <t xml:space="preserve">Task {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/TaskRoadSafety}
 </t>
   </si>
   <si>
@@ -2618,7 +2618,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="107.46875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="103.22265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-FacilityBundle.xlsx
+++ b/StructureDefinition-FacilityBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T08:34:02+00:00</t>
+    <t>2025-10-07T09:19:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FacilityBundle.xlsx
+++ b/StructureDefinition-FacilityBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T09:19:43+00:00</t>
+    <t>2025-10-07T09:49:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FacilityBundle.xlsx
+++ b/StructureDefinition-FacilityBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T09:49:39+00:00</t>
+    <t>2025-10-07T15:24:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FacilityBundle.xlsx
+++ b/StructureDefinition-FacilityBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T15:24:26+00:00</t>
+    <t>2025-10-08T01:21:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FacilityBundle.xlsx
+++ b/StructureDefinition-FacilityBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T01:21:21+00:00</t>
+    <t>2025-10-08T01:44:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FacilityBundle.xlsx
+++ b/StructureDefinition-FacilityBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T01:44:50+00:00</t>
+    <t>2025-10-08T02:57:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FacilityBundle.xlsx
+++ b/StructureDefinition-FacilityBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T02:57:10+00:00</t>
+    <t>2025-10-09T04:26:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FacilityBundle.xlsx
+++ b/StructureDefinition-FacilityBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T04:26:27+00:00</t>
+    <t>2025-10-09T07:33:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FacilityBundle.xlsx
+++ b/StructureDefinition-FacilityBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T07:33:25+00:00</t>
+    <t>2025-10-09T07:37:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FacilityBundle.xlsx
+++ b/StructureDefinition-FacilityBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T07:37:26+00:00</t>
+    <t>2025-10-09T08:41:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
